--- a/DOC/DB編/YYYYMM請求書_ソフトテク.xlsx
+++ b/DOC/DB編/YYYYMM請求書_ソフトテク.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\会社\会社\Softtech\会計\202405\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D76F6-AE23-43F8-ABC9-3B5E317A39E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D903B01E-74A1-48BD-BBA3-2E0B92F120B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="429" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="429" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4月" sheetId="9" r:id="rId1"/>
+    <sheet name="sample" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_" localSheetId="0">"#REF!"</definedName>
     <definedName name="_">"#REF!"</definedName>
-    <definedName name="__xlnm.Print_Area" localSheetId="0">'4月'!$A$1:$Z$36</definedName>
+    <definedName name="__xlnm.Print_Area" localSheetId="0">sample!$A$1:$Z$36</definedName>
     <definedName name="__xlnm.Print_Area">"#REF!"</definedName>
     <definedName name="_A" localSheetId="0">"#REF!"</definedName>
     <definedName name="_A">"#REF!"</definedName>
@@ -73,7 +73,7 @@
     <definedName name="ｄｄ">"#REF!"</definedName>
     <definedName name="ee" localSheetId="0">"#REF!"</definedName>
     <definedName name="ee">"#REF!"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">'4月'!$A$1:$Z$36</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">sample!$A$1:$Z$36</definedName>
     <definedName name="fdgh" localSheetId="0">"#REF!"</definedName>
     <definedName name="fdgh">"#REF!"</definedName>
     <definedName name="ｆｆ" localSheetId="0">"#REF!"</definedName>
@@ -108,7 +108,7 @@
     <definedName name="oo">"#REF!"</definedName>
     <definedName name="ｐｐ" localSheetId="0">"#REF!"</definedName>
     <definedName name="ｐｐ">"#REF!"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4月'!$A$1:$Z$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sample!$A$1:$Y$52</definedName>
     <definedName name="PRINT_AREA_MI" localSheetId="0">"#REF!"</definedName>
     <definedName name="PRINT_AREA_MI">"#REF!"</definedName>
     <definedName name="ｑ" localSheetId="0">"#REF!"</definedName>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>請　　求　　書</t>
   </si>
@@ -420,28 +420,17 @@
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
-  <si>
-    <t>2024/5/31</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>2024/7/30</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>2024/5/1～5/31</t>
-    <phoneticPr fontId="13"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]&quot;¥-&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="ggge&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="180" formatCode="0000&quot;/&quot;00&quot;/31&quot;"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -557,7 +546,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -623,43 +612,6 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -832,6 +784,150 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -850,7 +946,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -882,77 +978,173 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="25" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="31" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -969,103 +1161,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Excel Built-in Comma [0]" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Excel Built-in Currency [0]" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="パーセント 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="桁区切り 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="桁区切り 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="通貨 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="標準 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="未定義" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -1133,317 +1280,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DB1B0D-DC8C-A396-D955-4C98091F80DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5962650" y="200025"/>
-          <a:ext cx="1476375" cy="552449"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 79273"/>
-            <a:gd name="adj2" fmla="val 20865"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①対象年月の末日に設定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFAF8D6-A685-6F09-0A9E-EF2BD573BCEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="628650" y="3686175"/>
-          <a:ext cx="1476375" cy="552449"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 25079"/>
-            <a:gd name="adj2" fmla="val 74313"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>②この枠に人ごと入力</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAF4F33-AC6C-4345-8D0F-43BE88A344C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1371600" y="9477375"/>
-          <a:ext cx="2524125" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 25079"/>
-            <a:gd name="adj2" fmla="val 74313"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③備考欄に、初月最終月の場合、日割り計算内容を入れる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C2CAC0-7CCE-DA7B-0669-E28566D1BBDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2133600" y="11029950"/>
-          <a:ext cx="2524125" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -59827"/>
-            <a:gd name="adj2" fmla="val 36155"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>④対象年月の翌々月の末日に設定する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1821,112 +1657,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="25" width="5.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="0.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.140625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.85546875" style="1"/>
+    <col min="1" max="7" width="5.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="21" width="5.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
     </row>
     <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>29</v>
+      <c r="A4" s="34">
+        <v>202405</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -1952,9 +1794,9 @@
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
       <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-    </row>
-    <row r="5" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z4" s="24"/>
+    </row>
+    <row r="5" spans="1:28" ht="14.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1980,30 +1822,30 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-    </row>
-    <row r="7" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L8" s="4"/>
       <c r="P8" s="4" t="s">
         <v>1</v>
@@ -2012,7 +1854,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L9" s="4"/>
       <c r="P9" s="4" t="s">
         <v>23</v>
@@ -2022,7 +1864,7 @@
       <c r="U9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L10" s="5"/>
       <c r="P10" s="5" t="s">
         <v>24</v>
@@ -2033,7 +1875,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I11" s="6"/>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
@@ -2046,7 +1888,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I12" s="6"/>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
@@ -2060,7 +1902,7 @@
       <c r="U12" s="10"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I13" s="6"/>
       <c r="M13" s="6"/>
       <c r="R13" s="5"/>
@@ -2068,7 +1910,7 @@
       <c r="V13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
@@ -2077,26 +1919,26 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:28" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68">
         <f>W35</f>
         <v>3300000</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="14"/>
       <c r="M16" s="23" t="s">
         <v>26</v>
@@ -2104,516 +1946,500 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:30" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+    <row r="17" spans="1:29" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
       <c r="K17" s="14"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:30" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:29" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:30" s="7" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" s="7" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40" t="s">
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40" t="s">
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40" t="s">
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40" t="s">
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40" t="s">
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-    </row>
-    <row r="21" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79"/>
+    </row>
+    <row r="21" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>1</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="41">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40" t="str">
+        <f>TEXT(DATE(LEFT(SUBSTITUTE(A4, "'", ""), 4), MID(SUBSTITUTE(A4, "'", ""), 6, 2), 1), "yyyy/mm/dd") &amp; "～" &amp; TEXT(DATE(LEFT(SUBSTITUTE(A4, "'", ""), 4), MID(SUBSTITUTE(A4, "'", ""), 6, 2) + 1, 0), "yyyy/mm/dd")</f>
+        <v>2024/05/01～2024/05/31</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="74">
         <v>164</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="31">
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="44">
         <v>0</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="24">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="38">
         <v>3000000</v>
       </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24">
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="72">
         <v>0</v>
       </c>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="25">
-        <f>Q21+T21</f>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="80">
         <v>3000000</v>
       </c>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AD21" s="8"/>
-    </row>
-    <row r="22" spans="1:30" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X21" s="81"/>
+      <c r="Y21" s="82"/>
+      <c r="AC21" s="8"/>
+    </row>
+    <row r="22" spans="1:29" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AD22" s="8"/>
-    </row>
-    <row r="23" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="AC22" s="8"/>
+    </row>
+    <row r="23" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AD23" s="8"/>
-    </row>
-    <row r="24" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="37"/>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AD24" s="8"/>
-    </row>
-    <row r="25" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="37"/>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AD25" s="8"/>
-    </row>
-    <row r="26" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="37"/>
+      <c r="AC25" s="8"/>
+    </row>
+    <row r="26" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AD26" s="8"/>
-    </row>
-    <row r="27" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="37"/>
+      <c r="AC26" s="8"/>
+    </row>
+    <row r="27" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AD27" s="8"/>
-    </row>
-    <row r="28" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="37"/>
+      <c r="AC27" s="8"/>
+    </row>
+    <row r="28" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AD28" s="8"/>
-    </row>
-    <row r="29" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="37"/>
+      <c r="AC28" s="8"/>
+    </row>
+    <row r="29" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AD29" s="8"/>
-    </row>
-    <row r="30" spans="1:30" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="37"/>
+      <c r="AC29" s="8"/>
+    </row>
+    <row r="30" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AD30" s="8"/>
-    </row>
-    <row r="31" spans="1:30" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="37"/>
+      <c r="AC30" s="8"/>
+    </row>
+    <row r="31" spans="1:29" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AD31" s="8"/>
-    </row>
-    <row r="32" spans="1:30" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="37"/>
+      <c r="AC31" s="8"/>
+    </row>
+    <row r="32" spans="1:29" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AD32" s="8"/>
-    </row>
-    <row r="33" spans="1:26" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="50" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="37"/>
+      <c r="AC32" s="8"/>
+    </row>
+    <row r="33" spans="1:26" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="46">
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="25">
         <f>SUM(W21:W32)</f>
         <v>3000000</v>
       </c>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-    </row>
-    <row r="34" spans="1:26" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="50" t="s">
+      <c r="X33" s="26"/>
+      <c r="Y33" s="27"/>
+    </row>
+    <row r="34" spans="1:26" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="46">
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="28">
         <f>W33*0.1</f>
         <v>300000</v>
       </c>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-    </row>
-    <row r="35" spans="1:26" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T35" s="51" t="s">
+      <c r="X34" s="29"/>
+      <c r="Y34" s="30"/>
+    </row>
+    <row r="35" spans="1:26" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T35" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="U35" s="52"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="47">
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="31">
         <f>SUM(W33:W34)</f>
         <v>3300000</v>
       </c>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="49"/>
-    </row>
-    <row r="36" spans="1:26" s="7" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X35" s="32"/>
+      <c r="Y35" s="33"/>
+    </row>
+    <row r="36" spans="1:26" s="7" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
@@ -2625,146 +2451,146 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="54" t="s">
+    <row r="37" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="56"/>
-    </row>
-    <row r="39" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="59"/>
-    </row>
-    <row r="40" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="59"/>
-    </row>
-    <row r="41" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="59"/>
-    </row>
-    <row r="42" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="60"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
-      <c r="U42" s="61"/>
-      <c r="V42" s="61"/>
-      <c r="W42" s="61"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="62"/>
-    </row>
-    <row r="43" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="57"/>
+    </row>
+    <row r="39" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="58"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="60"/>
+    </row>
+    <row r="40" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="60"/>
+    </row>
+    <row r="41" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="60"/>
+    </row>
+    <row r="42" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="63"/>
+    </row>
+    <row r="43" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15" t="s">
         <v>21</v>
       </c>
@@ -2793,20 +2619,21 @@
       <c r="X44" s="16"/>
       <c r="Y44" s="17"/>
     </row>
-    <row r="45" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
+      <c r="D45" s="50" t="str">
+        <f>TEXT(EOMONTH(DATE(LEFT(SUBSTITUTE(A4, "'", ""), 4), MID(SUBSTITUTE(A4, "'", ""), 6, 2), 1), 2), "yyyy/mm/dd")</f>
+        <v>2024/07/31</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2824,7 +2651,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="19"/>
     </row>
-    <row r="46" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2851,7 +2678,7 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="19"/>
     </row>
-    <row r="47" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>10</v>
       </c>
@@ -2882,7 +2709,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="19"/>
     </row>
-    <row r="48" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2911,7 +2738,7 @@
       <c r="X48" s="7"/>
       <c r="Y48" s="19"/>
     </row>
-    <row r="49" spans="1:25" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2938,41 +2765,66 @@
       <c r="X49" s="21"/>
       <c r="Y49" s="22"/>
     </row>
-    <row r="50" spans="1:25" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:25" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="106">
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:J17"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A1:Z3"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="A38:Y42"/>
+    <mergeCell ref="A34:S34"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="T25:V25"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="W33:Z33"/>
     <mergeCell ref="T33:V33"/>
     <mergeCell ref="A33:S33"/>
     <mergeCell ref="B27:D27"/>
@@ -2981,79 +2833,54 @@
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Z27"/>
     <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Z29"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Z26"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="A38:Y42"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="A4:Z4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:J17"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A1:Z3"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:P30"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" scale="74" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/DOC/DB編/YYYYMM請求書_ソフトテク.xlsx
+++ b/DOC/DB編/YYYYMM請求書_ソフトテク.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\DB編\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D903B01E-74A1-48BD-BBA3-2E0B92F120B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074E2CA8-CC66-4A8D-84EB-60E78B332C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="429" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <definedName name="oo">"#REF!"</definedName>
     <definedName name="ｐｐ" localSheetId="0">"#REF!"</definedName>
     <definedName name="ｐｐ">"#REF!"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sample!$A$1:$Y$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sample!$A$1:$Z$52</definedName>
     <definedName name="PRINT_AREA_MI" localSheetId="0">"#REF!"</definedName>
     <definedName name="PRINT_AREA_MI">"#REF!"</definedName>
     <definedName name="ｑ" localSheetId="0">"#REF!"</definedName>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>請　　求　　書</t>
   </si>
@@ -420,17 +420,28 @@
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
+  <si>
+    <t>2024/5/31</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>2024/7/30</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>2024/5/1～5/31</t>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]&quot;¥-&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="ggge&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="180" formatCode="0000&quot;/&quot;00&quot;/31&quot;"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -546,7 +557,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -606,6 +617,43 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -786,150 +834,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="double">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="double">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="double">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -946,7 +850,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -978,7 +882,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -990,217 +894,166 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="25" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="31" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,6 +1133,317 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DB1B0D-DC8C-A396-D955-4C98091F80DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5962650" y="200025"/>
+          <a:ext cx="1476375" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 79273"/>
+            <a:gd name="adj2" fmla="val 20865"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①対象年月の末日に設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFAF8D6-A685-6F09-0A9E-EF2BD573BCEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="628650" y="3686175"/>
+          <a:ext cx="1476375" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25079"/>
+            <a:gd name="adj2" fmla="val 74313"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②この枠に人ごと入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAF4F33-AC6C-4345-8D0F-43BE88A344C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="9477375"/>
+          <a:ext cx="2524125" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25079"/>
+            <a:gd name="adj2" fmla="val 74313"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③備考欄に、初月最終月の場合、日割り計算内容を入れる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C2CAC0-7CCE-DA7B-0669-E28566D1BBDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2133600" y="11029950"/>
+          <a:ext cx="2524125" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59827"/>
+            <a:gd name="adj2" fmla="val 36155"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④対象年月の翌々月の末日に設定する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1657,22 +1821,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:L23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="5.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
-    <col min="9" max="21" width="5.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" style="1" customWidth="1"/>
+    <col min="1" max="25" width="5.109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="0.33203125" style="1" customWidth="1"/>
     <col min="27" max="27" width="13.33203125" style="1" customWidth="1"/>
     <col min="28" max="28" width="11.109375" style="1" customWidth="1"/>
     <col min="29" max="29" width="5.109375" style="1" customWidth="1"/>
@@ -1680,95 +1838,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34">
-        <v>202405</v>
+      <c r="A4" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -1794,7 +1952,7 @@
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
       <c r="Y4" s="34"/>
-      <c r="Z4" s="24"/>
+      <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:28" ht="14.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
@@ -1823,26 +1981,26 @@
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:28" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1924,21 +2082,21 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="1:28" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36">
         <f>W35</f>
         <v>3300000</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="14"/>
       <c r="M16" s="23" t="s">
         <v>26</v>
@@ -1946,498 +2104,514 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:29" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
+    <row r="17" spans="1:30" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="14"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:29" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:29" s="7" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="7" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73" t="s">
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73" t="s">
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73" t="s">
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="77" t="s">
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="79"/>
-    </row>
-    <row r="21" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+    </row>
+    <row r="21" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>1</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40" t="str">
-        <f>TEXT(DATE(LEFT(SUBSTITUTE(A4, "'", ""), 4), MID(SUBSTITUTE(A4, "'", ""), 6, 2), 1), "yyyy/mm/dd") &amp; "～" &amp; TEXT(DATE(LEFT(SUBSTITUTE(A4, "'", ""), 4), MID(SUBSTITUTE(A4, "'", ""), 6, 2) + 1, 0), "yyyy/mm/dd")</f>
-        <v>2024/05/01～2024/05/31</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="74">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="41">
         <v>164</v>
       </c>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="44">
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="31">
         <v>0</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="38">
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="24">
         <v>3000000</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="72">
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24">
         <v>0</v>
       </c>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="80">
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="25">
+        <f>Q21+T21</f>
         <v>3000000</v>
       </c>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="82"/>
-      <c r="AC21" s="8"/>
-    </row>
-    <row r="22" spans="1:29" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AD21" s="8"/>
+    </row>
+    <row r="22" spans="1:30" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="37"/>
-      <c r="AC22" s="8"/>
-    </row>
-    <row r="23" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="32"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AD22" s="8"/>
+    </row>
+    <row r="23" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="37"/>
-      <c r="AC23" s="8"/>
-    </row>
-    <row r="24" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AD23" s="8"/>
+    </row>
+    <row r="24" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="37"/>
-      <c r="AC24" s="8"/>
-    </row>
-    <row r="25" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AD24" s="8"/>
+    </row>
+    <row r="25" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="37"/>
-      <c r="AC25" s="8"/>
-    </row>
-    <row r="26" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AD25" s="8"/>
+    </row>
+    <row r="26" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="37"/>
-      <c r="AC26" s="8"/>
-    </row>
-    <row r="27" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AD26" s="8"/>
+    </row>
+    <row r="27" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="37"/>
-      <c r="AC27" s="8"/>
-    </row>
-    <row r="28" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AD27" s="8"/>
+    </row>
+    <row r="28" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="37"/>
-      <c r="AC28" s="8"/>
-    </row>
-    <row r="29" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AD28" s="8"/>
+    </row>
+    <row r="29" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="37"/>
-      <c r="AC29" s="8"/>
-    </row>
-    <row r="30" spans="1:29" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="32"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AD29" s="8"/>
+    </row>
+    <row r="30" spans="1:30" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="37"/>
-      <c r="AC30" s="8"/>
-    </row>
-    <row r="31" spans="1:29" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AD30" s="8"/>
+    </row>
+    <row r="31" spans="1:30" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="37"/>
-      <c r="AC31" s="8"/>
-    </row>
-    <row r="32" spans="1:29" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="32"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AD31" s="8"/>
+    </row>
+    <row r="32" spans="1:30" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="37"/>
-      <c r="AC32" s="8"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AD32" s="8"/>
     </row>
     <row r="33" spans="1:26" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="66" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="25">
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="46">
         <f>SUM(W21:W32)</f>
         <v>3000000</v>
       </c>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="27"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
     </row>
     <row r="34" spans="1:26" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="52" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="28">
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="46">
         <f>W33*0.1</f>
         <v>300000</v>
       </c>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="30"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
     </row>
     <row r="35" spans="1:26" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T35" s="53" t="s">
+      <c r="T35" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="31">
+      <c r="U35" s="52"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="47">
         <f>SUM(W33:W34)</f>
         <v>3300000</v>
       </c>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="33"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="49"/>
     </row>
     <row r="36" spans="1:26" s="7" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q36" s="12"/>
@@ -2453,141 +2627,141 @@
     </row>
     <row r="37" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="57"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="56"/>
     </row>
     <row r="39" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="60"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="59"/>
     </row>
     <row r="40" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="60"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="59"/>
     </row>
     <row r="41" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="60"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="59"/>
     </row>
     <row r="42" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="63"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="62"/>
     </row>
     <row r="43" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2625,15 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="50" t="str">
-        <f>TEXT(EOMONTH(DATE(LEFT(SUBSTITUTE(A4, "'", ""), 4), MID(SUBSTITUTE(A4, "'", ""), 6, 2), 1), 2), "yyyy/mm/dd")</f>
-        <v>2024/07/31</v>
-      </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
+      <c r="D45" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2770,61 +2943,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="106">
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:J17"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A1:Z3"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="A38:Y42"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:S26"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="W33:Z33"/>
     <mergeCell ref="T33:V33"/>
     <mergeCell ref="A33:S33"/>
     <mergeCell ref="B27:D27"/>
@@ -2833,54 +2981,79 @@
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Z27"/>
     <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Z29"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Z26"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="A38:Y42"/>
+    <mergeCell ref="A34:S34"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="A4:Z4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:J17"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A1:Z3"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" scale="49" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
